--- a/VoiceTiming.xlsx
+++ b/VoiceTiming.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="1540" windowWidth="33000" windowHeight="21820" tabRatio="500"/>
+    <workbookView xWindow="3400" yWindow="740" windowWidth="33000" windowHeight="21820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2019.12.06" sheetId="1" r:id="rId1"/>
+    <sheet name="2019.12.07" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="31">
   <si>
     <t>「有象無象がおる…」（吐き捨てる）</t>
     <phoneticPr fontId="1"/>
@@ -147,6 +148,9 @@
   <si>
     <t>//</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STATE__ON_DIALOGUE</t>
   </si>
 </sst>
 </file>
@@ -478,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD26"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -916,4 +920,470 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="52.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4000</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>44000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>9000</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <f>D4+H4+I4</f>
+        <v>54000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>D5+H5+I5</f>
+        <v>57000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3000</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f t="shared" ref="D7:D10" si="0">D6+H6+I6</f>
+        <v>61000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>9000</v>
+      </c>
+      <c r="I7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>70500</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>9000</v>
+      </c>
+      <c r="I8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>7000</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>87500</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>10000</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>D10+H10+I10</f>
+        <v>98500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>10000</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <f>D11+H11+I11</f>
+        <v>109500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <f>D11-22000-20000</f>
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>4000</v>
+      </c>
+      <c r="I16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>29000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>6000</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18:D25" si="1">D17+H17+I17</f>
+        <v>36000</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>4000</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>7000</v>
+      </c>
+      <c r="I20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>53000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>13000</v>
+      </c>
+      <c r="I21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>67000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>15000</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>83000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>12000</v>
+      </c>
+      <c r="I23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>97000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>11000</v>
+      </c>
+      <c r="I24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <f>D24-22000-5000</f>
+        <v>70000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VoiceTiming.xlsx
+++ b/VoiceTiming.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="740" windowWidth="33000" windowHeight="21820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3740" yWindow="740" windowWidth="33000" windowHeight="21820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019.12.06" sheetId="1" r:id="rId1"/>
-    <sheet name="2019.12.07" sheetId="2" r:id="rId2"/>
+    <sheet name="2019.12.07" sheetId="3" r:id="rId2"/>
+    <sheet name="2019.12.11" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="44">
   <si>
     <t>「有象無象がおる…」（吐き捨てる）</t>
     <phoneticPr fontId="1"/>
@@ -151,6 +152,58 @@
   </si>
   <si>
     <t>STATE__ON_DIALOGUE</t>
+  </si>
+  <si>
+    <t>int t_NebutaVoiceStart_Evil[NUM_VOICES] = {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「悪霊たる我を産んだのは…貴様たち自身だ…。」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「…ゆめゆめ、忘れるな。この次は…コノ次ハ…‼」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「心地よい光だ…」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「魂が…洗い清められてゆく」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「鎮まれ。百鬼夜行と共に」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「百鬼夜行だと？」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「お前の眼には、アレがそう映ったというのか」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ある者が見れば魑魅魍魎の百鬼夜行。だがある者が見れば、美しい光の行軍」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「善か？悪か？月か？太陽か？決めるのは、お前たち自身だ…。」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「曇りのない眼で、いつか再び会いに来い。楽しみにしているぞ」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ワッハッハッハ…‼」</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -924,236 +977,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>4000</v>
       </c>
-      <c r="I3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>44000</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>9000</v>
       </c>
-      <c r="I4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
-        <f>D4+H4+I4</f>
+        <f>D4+I4+J4</f>
         <v>54000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>2000</v>
       </c>
-      <c r="I5" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D6">
-        <f>D5+H5+I5</f>
+        <f>D5+I5+J5</f>
         <v>57000</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3000</v>
       </c>
-      <c r="I6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="0">D6+H6+I6</f>
+        <f t="shared" ref="D7:D10" si="0">D6+I6+J6</f>
         <v>61000</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D8">
         <f t="shared" si="0"/>
         <v>70500</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D9">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9">
         <v>7000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D10">
         <f t="shared" si="0"/>
         <v>87500</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>10000</v>
+      </c>
+      <c r="J10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>D10+I10+J10</f>
+        <v>98500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="H10">
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
         <v>10000</v>
       </c>
-      <c r="I10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <f>D10+H10+I10</f>
-        <v>98500</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>10000</v>
-      </c>
-      <c r="I11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <f>D11+H11+I11</f>
+        <f>D11+I11+J11</f>
         <v>109500</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -1163,216 +1240,240 @@
         <v>56500</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>2000</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16">
         <v>4000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>29000</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17">
+        <v>27</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17">
         <v>6000</v>
       </c>
-      <c r="I17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18:D25" si="1">D17+H17+I17</f>
+        <f t="shared" ref="D18:D25" si="1">D17+I17+J17</f>
         <v>36000</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2000</v>
+        <v>27</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I18" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D19">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19">
+        <v>27</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19">
         <v>4000</v>
       </c>
-      <c r="I19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D20">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20">
         <v>7000</v>
       </c>
-      <c r="I20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D21">
         <f t="shared" si="1"/>
         <v>53000</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21">
         <v>13000</v>
       </c>
-      <c r="I21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D22">
         <f t="shared" si="1"/>
         <v>67000</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22">
         <v>15000</v>
       </c>
-      <c r="I22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D23">
         <f t="shared" si="1"/>
         <v>83000</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23">
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23">
         <v>12000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D24">
         <f t="shared" si="1"/>
         <v>97000</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24">
+        <v>27</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24">
         <v>11000</v>
       </c>
-      <c r="I24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
         <v>109000</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
@@ -1380,6 +1481,423 @@
       <c r="D26">
         <f>D24-22000-5000</f>
         <v>70000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="52.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>4000</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>25000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>9000</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>D5+I5+J5</f>
+        <v>47000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3000</v>
+      </c>
+      <c r="J6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f t="shared" ref="D7:D8" si="0">D6+I6+J6</f>
+        <v>51000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>9000</v>
+      </c>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>61000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f>D8+I8+J8</f>
+        <v>72000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>10000</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <f>D9+I9+J9</f>
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <f>D9-22000-20000</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>4000</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>29000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15">
+        <v>6000</v>
+      </c>
+      <c r="J15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:D21" si="1">D15+I15+J15</f>
+        <v>36000</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17">
+        <v>4000</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>46000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>13000</v>
+      </c>
+      <c r="J18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19">
+        <v>11000</v>
+      </c>
+      <c r="J19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>72000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20">
+        <v>11000</v>
+      </c>
+      <c r="J20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <f>D20-22000-5000</f>
+        <v>45000</v>
       </c>
     </row>
   </sheetData>

--- a/VoiceTiming.xlsx
+++ b/VoiceTiming.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="740" windowWidth="33000" windowHeight="21820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2760" yWindow="1240" windowWidth="33000" windowHeight="21820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019.12.06" sheetId="1" r:id="rId1"/>
@@ -1494,7 +1494,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D4">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -1849,13 +1849,13 @@
         <v>11000</v>
       </c>
       <c r="J19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>72000</v>
+        <v>73000</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>84000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D22">
         <f>D20-22000-5000</f>
-        <v>45000</v>
+        <v>46000</v>
       </c>
     </row>
   </sheetData>
